--- a/medicine/Psychotrope/Château_de_Talaud/Château_de_Talaud.xlsx
+++ b/medicine/Psychotrope/Château_de_Talaud/Château_de_Talaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Talaud</t>
+          <t>Château_de_Talaud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le château de Talaud est situé à Loriol-du-Comtat dans le Vaucluse. Sa construction date de 1757. Le bâtiment est inscrit au titre des monuments historiques depuis le 13 septembre 1988. Outre une activité viticole sur l'aire de production de l'AOC Ventoux, le château abrite une activité d'hôtellerie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Talaud</t>
+          <t>Château_de_Talaud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le bâtiment du château date de 1757. Il est inscrit au titre des monuments historiques depuis le 13 septembre 1988[1]. Il fut la propriété du marquis Grille d'Estoublon[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bâtiment du château date de 1757. Il est inscrit au titre des monuments historiques depuis le 13 septembre 1988. Il fut la propriété du marquis Grille d'Estoublon.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Talaud</t>
+          <t>Château_de_Talaud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les activités du Château de Talaud sont organisées via une SCEA, enregistrée auprès du RCS d'Avignon, sous le code d'activité 0121Z : culture de la vigne[3]. Pour autant, le domaine a développé une activité hôtelière, implantée dans le château du domaine, inscrit aux monuments historiques.
-Le domaine est le seul à avoir son caveau sur la commune de Loriol-du-Comtat[4]. La plupart des vins du Château de Talaud sont produits selon le cahier des charges de l'AOC Ventoux[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les activités du Château de Talaud sont organisées via une SCEA, enregistrée auprès du RCS d'Avignon, sous le code d'activité 0121Z : culture de la vigne. Pour autant, le domaine a développé une activité hôtelière, implantée dans le château du domaine, inscrit aux monuments historiques.
+Le domaine est le seul à avoir son caveau sur la commune de Loriol-du-Comtat. La plupart des vins du Château de Talaud sont produits selon le cahier des charges de l'AOC Ventoux.
 </t>
         </is>
       </c>
